--- a/docs/Job Seeker Diagnostic model.xlsx
+++ b/docs/Job Seeker Diagnostic model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19680"/>
   </bookViews>
   <sheets>
     <sheet name="EA QUESTIONNAIRE" sheetId="7" r:id="rId1"/>
@@ -670,7 +670,7 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,6 +719,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -864,10 +880,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1073,8 +1123,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="37">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1552,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="89" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="89" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1575,8 +1659,14 @@
     <col min="20" max="20" width="60.75" style="33" customWidth="1"/>
     <col min="21" max="21" width="36.75" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="49.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="32" width="8.625" style="10"/>
+    <col min="23" max="23" width="27.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="8.625" style="10"/>
     <col min="33" max="33" width="8.625" style="10" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.625" style="10"/>
     <col min="35" max="35" width="20" style="10" bestFit="1" customWidth="1"/>
@@ -3047,7 +3137,7 @@
     <mergeCell ref="R39:R51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3077,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/docs/Job Seeker Diagnostic model.xlsx
+++ b/docs/Job Seeker Diagnostic model.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EA QUESTIONNAIRE" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet5" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$A$59</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="218">
   <si>
     <t>Yes</t>
   </si>
@@ -659,6 +663,21 @@
   </si>
   <si>
     <t>Thinking Positive Workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify your transferable skills </t>
+  </si>
+  <si>
+    <t>Identifying job goals workshop</t>
+  </si>
+  <si>
+    <t>Confidence building</t>
+  </si>
+  <si>
+    <t>Effective job search practice workshop</t>
+  </si>
+  <si>
+    <t>Group job search session</t>
   </si>
 </sst>
 </file>
@@ -880,10 +899,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1089,6 +1172,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,20 +1205,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="101">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1142,6 +1225,38 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1159,6 +1274,38 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1636,23 +1783,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="89" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="F2" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="89" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.625" style="10"/>
     <col min="2" max="2" width="17.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="25" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="9.625" style="10" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="10" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="10" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="11.125" style="10" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="8.625" style="10" hidden="1" customWidth="1"/>
-    <col min="14" max="16" width="9.125" style="10" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="92" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="25" customWidth="1"/>
+    <col min="6" max="7" width="9.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="10" customWidth="1"/>
+    <col min="10" max="11" width="11.125" style="10" customWidth="1"/>
+    <col min="12" max="13" width="8.625" style="10" customWidth="1"/>
+    <col min="14" max="16" width="9.125" style="10" customWidth="1"/>
     <col min="17" max="17" width="9.125" style="8" customWidth="1"/>
     <col min="18" max="18" width="30.375" style="63" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="36.875" style="10" bestFit="1" customWidth="1"/>
@@ -1816,7 +1963,7 @@
       </c>
       <c r="P3" s="55"/>
       <c r="Q3" s="52"/>
-      <c r="R3" s="77">
+      <c r="R3" s="70">
         <v>1</v>
       </c>
       <c r="S3" s="59" t="s">
@@ -1884,7 +2031,7 @@
       </c>
       <c r="P4" s="56"/>
       <c r="Q4" s="52"/>
-      <c r="R4" s="77"/>
+      <c r="R4" s="70"/>
       <c r="S4" s="59" t="s">
         <v>99</v>
       </c>
@@ -1915,7 +2062,7 @@
       <c r="AG4" s="40">
         <v>1</v>
       </c>
-      <c r="AH4" s="76"/>
+      <c r="AH4" s="69"/>
       <c r="AI4" s="41" t="s">
         <v>25</v>
       </c>
@@ -1966,7 +2113,7 @@
       </c>
       <c r="P5" s="56"/>
       <c r="Q5" s="52"/>
-      <c r="R5" s="77"/>
+      <c r="R5" s="70"/>
       <c r="S5" s="60" t="s">
         <v>6</v>
       </c>
@@ -1991,7 +2138,7 @@
       <c r="AG5" s="40">
         <v>0.9</v>
       </c>
-      <c r="AH5" s="76"/>
+      <c r="AH5" s="69"/>
       <c r="AI5" s="41" t="s">
         <v>26</v>
       </c>
@@ -2042,7 +2189,7 @@
       </c>
       <c r="P6" s="56"/>
       <c r="Q6" s="52"/>
-      <c r="R6" s="78">
+      <c r="R6" s="71">
         <v>2</v>
       </c>
       <c r="S6" s="59" t="s">
@@ -2052,7 +2199,7 @@
       <c r="AG6" s="40">
         <v>0.8</v>
       </c>
-      <c r="AH6" s="76"/>
+      <c r="AH6" s="69"/>
       <c r="AI6" s="41" t="s">
         <v>27</v>
       </c>
@@ -2103,7 +2250,7 @@
       </c>
       <c r="P7" s="56"/>
       <c r="Q7" s="52"/>
-      <c r="R7" s="78"/>
+      <c r="R7" s="71"/>
       <c r="S7" s="59" t="s">
         <v>99</v>
       </c>
@@ -2163,7 +2310,7 @@
       </c>
       <c r="P8" s="56"/>
       <c r="Q8" s="52"/>
-      <c r="R8" s="78"/>
+      <c r="R8" s="71"/>
       <c r="S8" s="60" t="s">
         <v>6</v>
       </c>
@@ -2191,7 +2338,7 @@
       <c r="AG8" s="43">
         <v>0.79</v>
       </c>
-      <c r="AH8" s="76"/>
+      <c r="AH8" s="69"/>
       <c r="AI8" s="44" t="s">
         <v>88</v>
       </c>
@@ -2210,11 +2357,11 @@
         <v>11</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="E9" s="27">
         <f>VLOOKUP(D9,Sheet5!B:C,2,)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F9" s="20">
         <f t="shared" si="0"/>
@@ -2222,7 +2369,7 @@
       </c>
       <c r="G9" s="20">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="20">
@@ -2242,7 +2389,7 @@
       </c>
       <c r="P9" s="56"/>
       <c r="Q9" s="52"/>
-      <c r="R9" s="78">
+      <c r="R9" s="71">
         <v>3</v>
       </c>
       <c r="S9" s="59" t="s">
@@ -2252,7 +2399,7 @@
       <c r="AG9" s="43">
         <v>0.7</v>
       </c>
-      <c r="AH9" s="76"/>
+      <c r="AH9" s="69"/>
       <c r="AI9" s="44" t="s">
         <v>28</v>
       </c>
@@ -2302,7 +2449,7 @@
       </c>
       <c r="P10" s="56"/>
       <c r="Q10" s="52"/>
-      <c r="R10" s="78"/>
+      <c r="R10" s="71"/>
       <c r="S10" s="59" t="s">
         <v>99</v>
       </c>
@@ -2321,7 +2468,7 @@
       <c r="AG10" s="43">
         <v>0.6</v>
       </c>
-      <c r="AH10" s="76"/>
+      <c r="AH10" s="69"/>
       <c r="AI10" s="44" t="s">
         <v>29</v>
       </c>
@@ -2332,11 +2479,11 @@
     <row r="11" spans="1:36">
       <c r="D11" s="28">
         <f>G11</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="27">
         <f>SUM(E3:E10)</f>
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="20">
         <f>SUM(F3:F10)</f>
@@ -2344,7 +2491,7 @@
       </c>
       <c r="G11" s="20">
         <f>SUM(G3:G10)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="20">
@@ -2367,7 +2514,7 @@
       </c>
       <c r="P11" s="57"/>
       <c r="Q11" s="52"/>
-      <c r="R11" s="78"/>
+      <c r="R11" s="71"/>
       <c r="S11" s="60" t="s">
         <v>6</v>
       </c>
@@ -2408,7 +2555,7 @@
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="79">
+      <c r="R12" s="72">
         <v>4</v>
       </c>
       <c r="S12" s="59" t="s">
@@ -2418,7 +2565,7 @@
       <c r="AG12" s="45">
         <v>0.59</v>
       </c>
-      <c r="AH12" s="76"/>
+      <c r="AH12" s="69"/>
       <c r="AI12" s="46" t="str">
         <f>AI10</f>
         <v>Reasons to work</v>
@@ -2452,7 +2599,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="79"/>
+      <c r="R13" s="72"/>
       <c r="S13" s="59" t="s">
         <v>99</v>
       </c>
@@ -2465,7 +2612,7 @@
       <c r="AG13" s="45">
         <v>0.3</v>
       </c>
-      <c r="AH13" s="76"/>
+      <c r="AH13" s="69"/>
       <c r="AI13" s="46" t="s">
         <v>30</v>
       </c>
@@ -2475,7 +2622,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="L14" s="25"/>
-      <c r="R14" s="79"/>
+      <c r="R14" s="72"/>
       <c r="S14" s="60" t="s">
         <v>6</v>
       </c>
@@ -2492,7 +2639,7 @@
       <c r="AG14" s="45">
         <v>0.1</v>
       </c>
-      <c r="AH14" s="76"/>
+      <c r="AH14" s="69"/>
       <c r="AI14" s="46" t="s">
         <v>30</v>
       </c>
@@ -2506,10 +2653,10 @@
       </c>
       <c r="D15" s="32">
         <f>+E13*0+1*D11</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="L15" s="25"/>
-      <c r="R15" s="69">
+      <c r="R15" s="73">
         <v>5</v>
       </c>
       <c r="S15" s="59" t="s">
@@ -2519,7 +2666,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="L16" s="25"/>
-      <c r="R16" s="69"/>
+      <c r="R16" s="73"/>
       <c r="S16" s="59" t="s">
         <v>99</v>
       </c>
@@ -2535,7 +2682,7 @@
     </row>
     <row r="17" spans="12:27">
       <c r="L17" s="25"/>
-      <c r="R17" s="69"/>
+      <c r="R17" s="73"/>
       <c r="S17" s="60" t="s">
         <v>6</v>
       </c>
@@ -2566,7 +2713,7 @@
     </row>
     <row r="18" spans="12:27">
       <c r="L18" s="25"/>
-      <c r="R18" s="69">
+      <c r="R18" s="73">
         <v>6</v>
       </c>
       <c r="S18" s="59" t="s">
@@ -2576,7 +2723,7 @@
     </row>
     <row r="19" spans="12:27">
       <c r="L19" s="25"/>
-      <c r="R19" s="69"/>
+      <c r="R19" s="73"/>
       <c r="S19" s="59" t="s">
         <v>99</v>
       </c>
@@ -2588,7 +2735,7 @@
       </c>
     </row>
     <row r="20" spans="12:27">
-      <c r="R20" s="69"/>
+      <c r="R20" s="73"/>
       <c r="S20" s="60" t="s">
         <v>6</v>
       </c>
@@ -2606,7 +2753,7 @@
       </c>
     </row>
     <row r="21" spans="12:27">
-      <c r="R21" s="69">
+      <c r="R21" s="73">
         <v>7</v>
       </c>
       <c r="S21" s="59" t="s">
@@ -2615,7 +2762,7 @@
       <c r="T21" s="10"/>
     </row>
     <row r="22" spans="12:27">
-      <c r="R22" s="69"/>
+      <c r="R22" s="73"/>
       <c r="S22" s="59" t="s">
         <v>99</v>
       </c>
@@ -2636,7 +2783,7 @@
       </c>
     </row>
     <row r="23" spans="12:27">
-      <c r="R23" s="69"/>
+      <c r="R23" s="73"/>
       <c r="S23" s="60" t="s">
         <v>6</v>
       </c>
@@ -2663,7 +2810,7 @@
       </c>
     </row>
     <row r="24" spans="12:27">
-      <c r="R24" s="69">
+      <c r="R24" s="73">
         <v>8</v>
       </c>
       <c r="S24" s="59" t="s">
@@ -2672,7 +2819,7 @@
       <c r="T24" s="10"/>
     </row>
     <row r="25" spans="12:27">
-      <c r="R25" s="69"/>
+      <c r="R25" s="73"/>
       <c r="S25" s="59" t="s">
         <v>99</v>
       </c>
@@ -2696,7 +2843,7 @@
       </c>
     </row>
     <row r="26" spans="12:27">
-      <c r="R26" s="69"/>
+      <c r="R26" s="73"/>
       <c r="S26" s="60" t="s">
         <v>6</v>
       </c>
@@ -2726,7 +2873,7 @@
       <c r="T27" s="10"/>
     </row>
     <row r="29" spans="12:27">
-      <c r="R29" s="72" t="s">
+      <c r="R29" s="76" t="s">
         <v>208</v>
       </c>
       <c r="S29" s="64" t="s">
@@ -2743,7 +2890,7 @@
       </c>
     </row>
     <row r="30" spans="12:27">
-      <c r="R30" s="73"/>
+      <c r="R30" s="77"/>
       <c r="S30" s="66" t="s">
         <v>144</v>
       </c>
@@ -2758,7 +2905,7 @@
       </c>
     </row>
     <row r="31" spans="12:27">
-      <c r="R31" s="73"/>
+      <c r="R31" s="77"/>
       <c r="S31" s="66" t="s">
         <v>148</v>
       </c>
@@ -2773,7 +2920,7 @@
       </c>
     </row>
     <row r="32" spans="12:27">
-      <c r="R32" s="73"/>
+      <c r="R32" s="77"/>
       <c r="S32" s="66" t="s">
         <v>152</v>
       </c>
@@ -2788,7 +2935,7 @@
       </c>
     </row>
     <row r="33" spans="18:22">
-      <c r="R33" s="73"/>
+      <c r="R33" s="77"/>
       <c r="S33" s="66" t="s">
         <v>156</v>
       </c>
@@ -2803,7 +2950,7 @@
       </c>
     </row>
     <row r="34" spans="18:22">
-      <c r="R34" s="73"/>
+      <c r="R34" s="77"/>
       <c r="S34" s="66" t="s">
         <v>160</v>
       </c>
@@ -2818,7 +2965,7 @@
       </c>
     </row>
     <row r="35" spans="18:22">
-      <c r="R35" s="73"/>
+      <c r="R35" s="77"/>
       <c r="S35" s="66" t="s">
         <v>164</v>
       </c>
@@ -2831,7 +2978,7 @@
       </c>
     </row>
     <row r="36" spans="18:22">
-      <c r="R36" s="73"/>
+      <c r="R36" s="77"/>
       <c r="S36" s="4" t="s">
         <v>167</v>
       </c>
@@ -2850,7 +2997,7 @@
       <c r="T38" s="10"/>
     </row>
     <row r="39" spans="18:22">
-      <c r="R39" s="74" t="s">
+      <c r="R39" s="78" t="s">
         <v>209</v>
       </c>
       <c r="S39" s="67" t="s">
@@ -2867,7 +3014,7 @@
       </c>
     </row>
     <row r="40" spans="18:22">
-      <c r="R40" s="75"/>
+      <c r="R40" s="79"/>
       <c r="S40" s="67" t="s">
         <v>119</v>
       </c>
@@ -2882,7 +3029,7 @@
       </c>
     </row>
     <row r="41" spans="18:22">
-      <c r="R41" s="75"/>
+      <c r="R41" s="79"/>
       <c r="S41" s="67" t="s">
         <v>173</v>
       </c>
@@ -2897,7 +3044,7 @@
       </c>
     </row>
     <row r="42" spans="18:22">
-      <c r="R42" s="75"/>
+      <c r="R42" s="79"/>
       <c r="S42" s="67" t="s">
         <v>177</v>
       </c>
@@ -2912,7 +3059,7 @@
       </c>
     </row>
     <row r="43" spans="18:22">
-      <c r="R43" s="75"/>
+      <c r="R43" s="79"/>
       <c r="S43" s="67" t="s">
         <v>181</v>
       </c>
@@ -2927,7 +3074,7 @@
       </c>
     </row>
     <row r="44" spans="18:22">
-      <c r="R44" s="75"/>
+      <c r="R44" s="79"/>
       <c r="S44" s="67" t="s">
         <v>183</v>
       </c>
@@ -2940,7 +3087,7 @@
       </c>
     </row>
     <row r="45" spans="18:22">
-      <c r="R45" s="75"/>
+      <c r="R45" s="79"/>
       <c r="S45" s="67" t="s">
         <v>184</v>
       </c>
@@ -2951,7 +3098,7 @@
       <c r="V45" s="4"/>
     </row>
     <row r="46" spans="18:22">
-      <c r="R46" s="75"/>
+      <c r="R46" s="79"/>
       <c r="S46" s="67" t="s">
         <v>185</v>
       </c>
@@ -2962,7 +3109,7 @@
       <c r="V46" s="4"/>
     </row>
     <row r="47" spans="18:22">
-      <c r="R47" s="75"/>
+      <c r="R47" s="79"/>
       <c r="S47" s="67" t="s">
         <v>176</v>
       </c>
@@ -2973,7 +3120,7 @@
       <c r="V47" s="4"/>
     </row>
     <row r="48" spans="18:22">
-      <c r="R48" s="75"/>
+      <c r="R48" s="79"/>
       <c r="S48" s="67" t="s">
         <v>188</v>
       </c>
@@ -2984,7 +3131,7 @@
       <c r="V48" s="4"/>
     </row>
     <row r="49" spans="18:22">
-      <c r="R49" s="75"/>
+      <c r="R49" s="79"/>
       <c r="S49" s="67" t="s">
         <v>189</v>
       </c>
@@ -2995,7 +3142,7 @@
       <c r="V49" s="4"/>
     </row>
     <row r="50" spans="18:22">
-      <c r="R50" s="75"/>
+      <c r="R50" s="79"/>
       <c r="S50" s="4"/>
       <c r="T50" s="67" t="s">
         <v>187</v>
@@ -3004,7 +3151,7 @@
       <c r="V50" s="4"/>
     </row>
     <row r="51" spans="18:22">
-      <c r="R51" s="75"/>
+      <c r="R51" s="79"/>
       <c r="S51" s="4"/>
       <c r="T51" s="67" t="s">
         <v>165</v>
@@ -3017,7 +3164,7 @@
       <c r="T52" s="10"/>
     </row>
     <row r="53" spans="18:22">
-      <c r="R53" s="70" t="s">
+      <c r="R53" s="74" t="s">
         <v>210</v>
       </c>
       <c r="S53" s="67" t="s">
@@ -3034,7 +3181,7 @@
       </c>
     </row>
     <row r="54" spans="18:22">
-      <c r="R54" s="71"/>
+      <c r="R54" s="75"/>
       <c r="S54" s="67" t="s">
         <v>194</v>
       </c>
@@ -3049,7 +3196,7 @@
       </c>
     </row>
     <row r="55" spans="18:22">
-      <c r="R55" s="71"/>
+      <c r="R55" s="75"/>
       <c r="S55" s="67" t="s">
         <v>198</v>
       </c>
@@ -3064,7 +3211,7 @@
       </c>
     </row>
     <row r="56" spans="18:22">
-      <c r="R56" s="71"/>
+      <c r="R56" s="75"/>
       <c r="S56" s="67" t="s">
         <v>201</v>
       </c>
@@ -3075,7 +3222,7 @@
       <c r="V56" s="4"/>
     </row>
     <row r="57" spans="18:22">
-      <c r="R57" s="71"/>
+      <c r="R57" s="75"/>
       <c r="S57" s="67" t="s">
         <v>114</v>
       </c>
@@ -3084,7 +3231,7 @@
       <c r="V57" s="4"/>
     </row>
     <row r="58" spans="18:22">
-      <c r="R58" s="71"/>
+      <c r="R58" s="75"/>
       <c r="S58" s="67" t="s">
         <v>203</v>
       </c>
@@ -3093,7 +3240,7 @@
       <c r="V58" s="4"/>
     </row>
     <row r="59" spans="18:22">
-      <c r="R59" s="71"/>
+      <c r="R59" s="75"/>
       <c r="S59" s="67" t="s">
         <v>204</v>
       </c>
@@ -3102,7 +3249,7 @@
       <c r="V59" s="4"/>
     </row>
     <row r="60" spans="18:22">
-      <c r="R60" s="71"/>
+      <c r="R60" s="75"/>
       <c r="S60" s="67" t="s">
         <v>205</v>
       </c>
@@ -3111,7 +3258,7 @@
       <c r="V60" s="4"/>
     </row>
     <row r="61" spans="18:22">
-      <c r="R61" s="71"/>
+      <c r="R61" s="75"/>
       <c r="S61" s="67" t="s">
         <v>206</v>
       </c>
@@ -3121,6 +3268,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="R53:R61"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="R29:R36"/>
+    <mergeCell ref="R39:R51"/>
     <mergeCell ref="AH4:AH6"/>
     <mergeCell ref="AH8:AH10"/>
     <mergeCell ref="AH12:AH14"/>
@@ -3128,13 +3282,6 @@
     <mergeCell ref="R6:R8"/>
     <mergeCell ref="R9:R11"/>
     <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="R53:R61"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="R29:R36"/>
-    <mergeCell ref="R39:R51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294"/>
@@ -3167,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V36"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3483,4 +3630,227 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30">
+      <c r="A1" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A59">
+    <sortState ref="A2:J66">
+      <sortCondition ref="A1:A66"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>